--- a/Team-Data/2014-15/2-2-2014-15.xlsx
+++ b/Team-Data/2014-15/2-2-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="n">
         <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
@@ -684,7 +751,7 @@
         <v>38.1</v>
       </c>
       <c r="J2" t="n">
-        <v>80.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.472</v>
@@ -693,16 +760,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.387</v>
+        <v>0.388</v>
       </c>
       <c r="O2" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P2" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q2" t="n">
         <v>0.772</v>
@@ -711,16 +778,16 @@
         <v>8.5</v>
       </c>
       <c r="S2" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T2" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U2" t="n">
-        <v>25.9</v>
+        <v>26.1</v>
       </c>
       <c r="V2" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="W2" t="n">
         <v>8.800000000000001</v>
@@ -729,31 +796,31 @@
         <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
         <v>24</v>
@@ -762,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK2" t="n">
         <v>4</v>
@@ -777,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
         <v>8</v>
@@ -789,10 +856,10 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -804,22 +871,22 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB2" t="n">
         <v>6</v>
       </c>
       <c r="BC2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
@@ -965,19 +1032,19 @@
         <v>28</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV3" t="n">
         <v>16</v>
@@ -986,13 +1053,13 @@
         <v>10</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -1030,103 +1097,103 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
         <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>0.404</v>
+        <v>0.391</v>
       </c>
       <c r="H4" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J4" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L4" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M4" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.32</v>
+        <v>0.316</v>
       </c>
       <c r="O4" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="P4" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.744</v>
+        <v>0.749</v>
       </c>
       <c r="R4" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T4" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U4" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V4" t="n">
         <v>14.4</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="n">
         <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
         <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>24</v>
       </c>
       <c r="AK4" t="n">
         <v>18</v>
@@ -1135,40 +1202,40 @@
         <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU4" t="n">
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AX4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
         <v>10</v>
@@ -1177,7 +1244,7 @@
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
         <v>25</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
         <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>0.438</v>
+        <v>0.426</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
@@ -1230,34 +1297,34 @@
         <v>36</v>
       </c>
       <c r="J5" t="n">
-        <v>84.90000000000001</v>
+        <v>85</v>
       </c>
       <c r="K5" t="n">
-        <v>0.424</v>
+        <v>0.423</v>
       </c>
       <c r="L5" t="n">
         <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.305</v>
+        <v>0.306</v>
       </c>
       <c r="O5" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P5" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q5" t="n">
         <v>0.73</v>
       </c>
       <c r="R5" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S5" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T5" t="n">
         <v>44.1</v>
@@ -1275,25 +1342,25 @@
         <v>5.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB5" t="n">
         <v>94.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.2</v>
+        <v>-2.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
         <v>18</v>
@@ -1305,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="AI5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
         <v>9</v>
@@ -1323,22 +1390,22 @@
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ5" t="n">
         <v>27</v>
       </c>
       <c r="AR5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
         <v>26</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1514,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="AR6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.592</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J7" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K7" t="n">
         <v>0.453</v>
@@ -1603,19 +1670,19 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="N7" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O7" t="n">
         <v>18.4</v>
       </c>
       <c r="P7" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="R7" t="n">
         <v>11.4</v>
@@ -1624,16 +1691,16 @@
         <v>31</v>
       </c>
       <c r="T7" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U7" t="n">
         <v>21.5</v>
       </c>
       <c r="V7" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="W7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
         <v>4.1</v>
@@ -1642,22 +1709,22 @@
         <v>4.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA7" t="n">
         <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
@@ -1669,10 +1736,10 @@
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK7" t="n">
         <v>15</v>
@@ -1684,13 +1751,13 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
       </c>
       <c r="AP7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
         <v>15</v>
@@ -1699,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT7" t="n">
         <v>19</v>
@@ -1708,16 +1775,16 @@
         <v>15</v>
       </c>
       <c r="AV7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AY7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ7" t="n">
         <v>2</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -1761,13 +1828,13 @@
         <v>49</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>0.673</v>
+        <v>0.653</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,49 +1843,49 @@
         <v>40.3</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.471</v>
       </c>
       <c r="L8" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O8" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P8" t="n">
         <v>22.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.756</v>
+        <v>0.759</v>
       </c>
       <c r="R8" t="n">
         <v>10.6</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V8" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="W8" t="n">
         <v>8.1</v>
       </c>
       <c r="X8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y8" t="n">
         <v>3.5</v>
@@ -1827,25 +1894,25 @@
         <v>19.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB8" t="n">
         <v>106.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>14</v>
@@ -1866,22 +1933,22 @@
         <v>5</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
         <v>20</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
@@ -1896,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2027,7 +2094,7 @@
         <v>20</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
         <v>16</v>
@@ -2048,7 +2115,7 @@
         <v>12</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
@@ -2072,7 +2139,7 @@
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW9" t="n">
         <v>26</v>
@@ -2087,7 +2154,7 @@
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -2200,10 +2267,10 @@
         <v>-2.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
         <v>22</v>
@@ -2215,7 +2282,7 @@
         <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
         <v>6</v>
@@ -2227,13 +2294,13 @@
         <v>10</v>
       </c>
       <c r="AM10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN10" t="n">
         <v>19</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
         <v>15</v>
@@ -2245,13 +2312,13 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
         <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV10" t="n">
         <v>10</v>
@@ -2260,16 +2327,16 @@
         <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>6</v>
       </c>
       <c r="BA10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -2409,13 +2476,13 @@
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN11" t="n">
         <v>2</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
@@ -2424,7 +2491,7 @@
         <v>7</v>
       </c>
       <c r="AR11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -2486,55 +2553,55 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" t="n">
         <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>0.681</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J12" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O12" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R12" t="n">
         <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
         <v>21.3</v>
@@ -2543,31 +2610,31 @@
         <v>17.3</v>
       </c>
       <c r="W12" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X12" t="n">
         <v>4.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
@@ -2576,13 +2643,13 @@
         <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
         <v>21</v>
@@ -2594,52 +2661,52 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS12" t="n">
         <v>22</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX12" t="n">
         <v>20</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-2</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
@@ -2764,7 +2831,7 @@
         <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2773,19 +2840,19 @@
         <v>22</v>
       </c>
       <c r="AM13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN13" t="n">
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP13" t="n">
         <v>25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
         <v>15</v>
@@ -2806,7 +2873,7 @@
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY13" t="n">
         <v>16</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -2850,94 +2917,94 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" t="n">
         <v>33</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>0.673</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J14" t="n">
-        <v>82.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L14" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O14" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="P14" t="n">
         <v>24.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.741</v>
+        <v>0.75</v>
       </c>
       <c r="R14" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T14" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="U14" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="V14" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="W14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
         <v>3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.7</v>
+        <v>106.9</v>
       </c>
       <c r="AC14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD14" t="n">
         <v>7</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2949,7 +3016,7 @@
         <v>19</v>
       </c>
       <c r="AK14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>4</v>
@@ -2958,22 +3025,22 @@
         <v>6</v>
       </c>
       <c r="AN14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO14" t="n">
         <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
       </c>
       <c r="AS14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT14" t="n">
         <v>24</v>
@@ -2988,7 +3055,7 @@
         <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" t="n">
-        <v>0.277</v>
+        <v>0.271</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L15" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M15" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N15" t="n">
         <v>0.348</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P15" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="R15" t="n">
         <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T15" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="U15" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V15" t="n">
         <v>13.1</v>
@@ -3098,19 +3165,19 @@
         <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.4</v>
+        <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,16 +3189,16 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
         <v>8</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
         <v>23</v>
@@ -3140,25 +3207,25 @@
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AP15" t="n">
         <v>7</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>10</v>
       </c>
       <c r="AS15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
         <v>23</v>
@@ -3167,7 +3234,7 @@
         <v>7</v>
       </c>
       <c r="AW15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
@@ -3176,10 +3243,10 @@
         <v>9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -3214,58 +3281,58 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="n">
         <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="H16" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I16" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J16" t="n">
         <v>83.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L16" t="n">
         <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O16" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P16" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="Q16" t="n">
         <v>0.778</v>
       </c>
       <c r="R16" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S16" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T16" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U16" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V16" t="n">
         <v>13</v>
@@ -3280,7 +3347,7 @@
         <v>5.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA16" t="n">
         <v>20.9</v>
@@ -3289,10 +3356,10 @@
         <v>101.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,16 +3371,16 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
         <v>8</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL16" t="n">
         <v>28</v>
@@ -3322,31 +3389,31 @@
         <v>28</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ16" t="n">
         <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AS16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU16" t="n">
         <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW16" t="n">
         <v>8</v>
@@ -3361,13 +3428,13 @@
         <v>9</v>
       </c>
       <c r="BA16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB16" t="n">
         <v>12</v>
       </c>
       <c r="BC16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3504,7 +3571,7 @@
         <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
         <v>11</v>
@@ -3513,7 +3580,7 @@
         <v>13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3534,7 +3601,7 @@
         <v>11</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY17" t="n">
         <v>8</v>
@@ -3543,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
         <v>29</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -3578,52 +3645,52 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" t="n">
         <v>22</v>
       </c>
       <c r="G18" t="n">
-        <v>0.542</v>
+        <v>0.532</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J18" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.464</v>
+        <v>0.466</v>
       </c>
       <c r="L18" t="n">
         <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N18" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="O18" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P18" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.767</v>
+        <v>0.771</v>
       </c>
       <c r="R18" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S18" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T18" t="n">
         <v>41.3</v>
@@ -3635,7 +3702,7 @@
         <v>17</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X18" t="n">
         <v>4.7</v>
@@ -3644,34 +3711,34 @@
         <v>4.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA18" t="n">
         <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.40000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG18" t="n">
         <v>14</v>
       </c>
       <c r="AH18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI18" t="n">
         <v>12</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>25</v>
@@ -3683,7 +3750,7 @@
         <v>19</v>
       </c>
       <c r="AM18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN18" t="n">
         <v>5</v>
@@ -3695,13 +3762,13 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
@@ -3722,7 +3789,7 @@
         <v>11</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA18" t="n">
         <v>23</v>
@@ -3731,7 +3798,7 @@
         <v>20</v>
       </c>
       <c r="BC18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="n">
-        <v>0.167</v>
+        <v>0.17</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,40 +3845,40 @@
         <v>36.8</v>
       </c>
       <c r="J19" t="n">
-        <v>84.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="K19" t="n">
         <v>0.435</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M19" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.336</v>
+        <v>0.338</v>
       </c>
       <c r="O19" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P19" t="n">
         <v>24.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.753</v>
+        <v>0.75</v>
       </c>
       <c r="R19" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S19" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T19" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="U19" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V19" t="n">
         <v>15.1</v>
@@ -3823,7 +3890,7 @@
         <v>4.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z19" t="n">
         <v>19.4</v>
@@ -3835,10 +3902,10 @@
         <v>97.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>-9.4</v>
+        <v>-9.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3850,7 +3917,7 @@
         <v>30</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>20</v>
@@ -3859,7 +3926,7 @@
         <v>12</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3868,25 +3935,25 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP19" t="n">
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
       </c>
       <c r="AT19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU19" t="n">
         <v>11</v>
@@ -3898,13 +3965,13 @@
         <v>7</v>
       </c>
       <c r="AX19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY19" t="n">
         <v>27</v>
       </c>
-      <c r="AY19" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -3957,79 +4024,79 @@
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J20" t="n">
-        <v>83.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M20" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.349</v>
+        <v>0.346</v>
       </c>
       <c r="O20" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P20" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.768</v>
+        <v>0.758</v>
       </c>
       <c r="R20" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S20" t="n">
         <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>44</v>
+        <v>44.2</v>
       </c>
       <c r="U20" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="V20" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
         <v>19</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
@@ -4038,43 +4105,43 @@
         <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
       </c>
       <c r="AM20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO20" t="n">
         <v>15</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>12</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT20" t="n">
         <v>9</v>
       </c>
-      <c r="AR20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>10</v>
-      </c>
       <c r="AU20" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>23</v>
@@ -4083,10 +4150,10 @@
         <v>6</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-7.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>28</v>
@@ -4232,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" t="n">
         <v>24</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>0.489</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,28 +4391,28 @@
         <v>37.2</v>
       </c>
       <c r="J22" t="n">
-        <v>84.8</v>
+        <v>85</v>
       </c>
       <c r="K22" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L22" t="n">
         <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.319</v>
+        <v>0.318</v>
       </c>
       <c r="O22" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P22" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.745</v>
+        <v>0.743</v>
       </c>
       <c r="R22" t="n">
         <v>12</v>
@@ -4354,22 +4421,22 @@
         <v>34.6</v>
       </c>
       <c r="T22" t="n">
-        <v>46.5</v>
+        <v>46.7</v>
       </c>
       <c r="U22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V22" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W22" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X22" t="n">
         <v>5.9</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z22" t="n">
         <v>22.5</v>
@@ -4378,13 +4445,13 @@
         <v>19.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
         <v>16</v>
@@ -4396,10 +4463,10 @@
         <v>16</v>
       </c>
       <c r="AH22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI22" t="n">
         <v>16</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>18</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
@@ -4414,16 +4481,16 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO22" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP22" t="n">
         <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR22" t="n">
         <v>6</v>
@@ -4438,22 +4505,22 @@
         <v>28</v>
       </c>
       <c r="AV22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AX22" t="n">
         <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -4503,43 +4570,43 @@
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J23" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.359</v>
+        <v>0.362</v>
       </c>
       <c r="O23" t="n">
         <v>14.5</v>
       </c>
       <c r="P23" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.733</v>
+        <v>0.731</v>
       </c>
       <c r="R23" t="n">
         <v>8.9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="U23" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
@@ -4548,22 +4615,22 @@
         <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA23" t="n">
         <v>18.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.1</v>
+        <v>-6.3</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4572,19 +4639,19 @@
         <v>26</v>
       </c>
       <c r="AF23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK23" t="n">
         <v>11</v>
@@ -4596,7 +4663,7 @@
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4611,13 +4678,13 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
         <v>20</v>
@@ -4629,7 +4696,7 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>22</v>
@@ -4638,7 +4705,7 @@
         <v>28</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -4670,43 +4737,43 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" t="n">
-        <v>0.204</v>
+        <v>0.208</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="J24" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K24" t="n">
         <v>0.409</v>
       </c>
       <c r="L24" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M24" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.303</v>
+        <v>0.302</v>
       </c>
       <c r="O24" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P24" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="Q24" t="n">
         <v>0.6830000000000001</v>
@@ -4715,22 +4782,22 @@
         <v>11.6</v>
       </c>
       <c r="S24" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T24" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U24" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V24" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="W24" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y24" t="n">
         <v>5.6</v>
@@ -4742,22 +4809,22 @@
         <v>20.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>89.5</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>-11.6</v>
+        <v>-11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
       </c>
       <c r="AF24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH24" t="n">
         <v>24</v>
@@ -4766,13 +4833,13 @@
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4781,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4796,7 +4863,7 @@
         <v>27</v>
       </c>
       <c r="AT24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU24" t="n">
         <v>27</v>
@@ -4805,19 +4872,19 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX24" t="n">
         <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" t="n">
         <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
@@ -4873,43 +4940,43 @@
         <v>86.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L25" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="N25" t="n">
         <v>0.359</v>
       </c>
       <c r="O25" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P25" t="n">
         <v>21.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.787</v>
+        <v>0.79</v>
       </c>
       <c r="R25" t="n">
         <v>10.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T25" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U25" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V25" t="n">
         <v>15.1</v>
       </c>
       <c r="W25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X25" t="n">
         <v>4.9</v>
@@ -4918,19 +4985,19 @@
         <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA25" t="n">
         <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>106.6</v>
+        <v>106.8</v>
       </c>
       <c r="AC25" t="n">
         <v>1.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4951,16 +5018,16 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>6</v>
       </c>
       <c r="AM25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
         <v>18</v>
@@ -4975,7 +5042,7 @@
         <v>16</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
         <v>18</v>
@@ -5005,7 +5072,7 @@
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>5.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
         <v>12</v>
@@ -5166,19 +5233,19 @@
         <v>9</v>
       </c>
       <c r="AV26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW26" t="n">
         <v>24</v>
       </c>
       <c r="AX26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
         <v>25</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5315,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5339,7 +5406,7 @@
         <v>13</v>
       </c>
       <c r="AS27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT27" t="n">
         <v>8</v>
@@ -5360,7 +5427,7 @@
         <v>30</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -5398,73 +5465,73 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
         <v>18</v>
       </c>
       <c r="G28" t="n">
-        <v>0.617</v>
+        <v>0.625</v>
       </c>
       <c r="H28" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="I28" t="n">
         <v>37.8</v>
       </c>
       <c r="J28" t="n">
-        <v>83.2</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.454</v>
+        <v>0.456</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="O28" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="P28" t="n">
         <v>22.4</v>
       </c>
-      <c r="N28" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="O28" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>22.5</v>
-      </c>
       <c r="Q28" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R28" t="n">
         <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
         <v>24.1</v>
       </c>
       <c r="V28" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA28" t="n">
         <v>20.2</v>
@@ -5473,31 +5540,31 @@
         <v>101</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG28" t="n">
         <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
         <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5509,13 +5576,13 @@
         <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5524,13 +5591,13 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>14</v>
@@ -5545,13 +5612,13 @@
         <v>11</v>
       </c>
       <c r="BA28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB28" t="n">
         <v>13</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" t="n">
         <v>33</v>
       </c>
       <c r="F29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>0.673</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>48.6</v>
       </c>
       <c r="I29" t="n">
-        <v>38.7</v>
+        <v>39</v>
       </c>
       <c r="J29" t="n">
-        <v>84.59999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.457</v>
+        <v>0.46</v>
       </c>
       <c r="L29" t="n">
         <v>8.9</v>
@@ -5610,7 +5677,7 @@
         <v>25.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O29" t="n">
         <v>19.9</v>
@@ -5631,43 +5698,43 @@
         <v>41.9</v>
       </c>
       <c r="U29" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V29" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W29" t="n">
         <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y29" t="n">
         <v>5.1</v>
       </c>
       <c r="Z29" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="AA29" t="n">
         <v>21.7</v>
       </c>
-      <c r="AA29" t="n">
-        <v>21.6</v>
-      </c>
       <c r="AB29" t="n">
-        <v>106.1</v>
+        <v>106.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>4</v>
       </c>
       <c r="AF29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH29" t="n">
         <v>7</v>
@@ -5679,7 +5746,7 @@
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5688,7 +5755,7 @@
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5709,7 +5776,7 @@
         <v>21</v>
       </c>
       <c r="AU29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV29" t="n">
         <v>4</v>
@@ -5718,13 +5785,13 @@
         <v>16</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA29" t="n">
         <v>4</v>
@@ -5733,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
         <v>22</v>
@@ -5864,7 +5931,7 @@
         <v>16</v>
       </c>
       <c r="AL30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM30" t="n">
         <v>17</v>
@@ -5873,25 +5940,25 @@
         <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP30" t="n">
         <v>16</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
         <v>17</v>
       </c>
       <c r="AU30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV30" t="n">
         <v>26</v>
@@ -5903,7 +5970,7 @@
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ30" t="n">
         <v>5</v>
@@ -5912,7 +5979,7 @@
         <v>24</v>
       </c>
       <c r="BB30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC30" t="n">
         <v>21</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" t="n">
         <v>31</v>
       </c>
       <c r="F31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G31" t="n">
-        <v>0.633</v>
+        <v>0.646</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J31" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L31" t="n">
         <v>6.1</v>
@@ -5974,16 +6041,16 @@
         <v>16</v>
       </c>
       <c r="N31" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="O31" t="n">
         <v>16.1</v>
       </c>
       <c r="P31" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.741</v>
+        <v>0.739</v>
       </c>
       <c r="R31" t="n">
         <v>10.4</v>
@@ -5995,10 +6062,10 @@
         <v>43.8</v>
       </c>
       <c r="U31" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="V31" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W31" t="n">
         <v>7.5</v>
@@ -6016,19 +6083,19 @@
         <v>20.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>9</v>
       </c>
       <c r="AF31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG31" t="n">
         <v>9</v>
@@ -6040,10 +6107,10 @@
         <v>6</v>
       </c>
       <c r="AJ31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6052,7 +6119,7 @@
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
@@ -6061,22 +6128,22 @@
         <v>22</v>
       </c>
       <c r="AQ31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR31" t="n">
         <v>22</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>21</v>
       </c>
       <c r="AS31" t="n">
         <v>9</v>
       </c>
       <c r="AT31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW31" t="n">
         <v>16</v>
@@ -6088,10 +6155,10 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-2-2014-15</t>
+          <t>2015-02-02</t>
         </is>
       </c>
     </row>
